--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H2">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I2">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J2">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>1453.415906057711</v>
+        <v>1814.279904248206</v>
       </c>
       <c r="R2">
-        <v>13080.7431545194</v>
+        <v>16328.51913823386</v>
       </c>
       <c r="S2">
-        <v>0.007608616758727594</v>
+        <v>0.0167197637038891</v>
       </c>
       <c r="T2">
-        <v>0.007608616758727592</v>
+        <v>0.0167197637038891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H3">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I3">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J3">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>1531.95420454135</v>
+        <v>1963.019019688112</v>
       </c>
       <c r="R3">
-        <v>13787.58784087215</v>
+        <v>17667.17117719301</v>
       </c>
       <c r="S3">
-        <v>0.008019763913202754</v>
+        <v>0.01809049093173171</v>
       </c>
       <c r="T3">
-        <v>0.008019763913202754</v>
+        <v>0.01809049093173171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H4">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I4">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J4">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>989.7789159988275</v>
+        <v>846.2317625229883</v>
       </c>
       <c r="R4">
-        <v>8908.010243989449</v>
+        <v>7616.085862706896</v>
       </c>
       <c r="S4">
-        <v>0.005181482063266262</v>
+        <v>0.007798573458803137</v>
       </c>
       <c r="T4">
-        <v>0.005181482063266262</v>
+        <v>0.007798573458803139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H5">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I5">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J5">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>530.3147086642776</v>
+        <v>664.5224718437315</v>
       </c>
       <c r="R5">
-        <v>4772.832377978499</v>
+        <v>5980.702246593583</v>
       </c>
       <c r="S5">
-        <v>0.002776191840838811</v>
+        <v>0.0061240047244835</v>
       </c>
       <c r="T5">
-        <v>0.002776191840838811</v>
+        <v>0.006124004724483502</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H6">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I6">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J6">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>772.0028220573943</v>
+        <v>793.4303493572694</v>
       </c>
       <c r="R6">
-        <v>6948.025398516548</v>
+        <v>7140.873144215424</v>
       </c>
       <c r="S6">
-        <v>0.004041426535384053</v>
+        <v>0.007311974258043063</v>
       </c>
       <c r="T6">
-        <v>0.004041426535384052</v>
+        <v>0.007311974258043066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.172821</v>
       </c>
       <c r="I7">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J7">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>25439.35934478354</v>
+        <v>24782.31237300697</v>
       </c>
       <c r="R7">
-        <v>228954.2341030519</v>
+        <v>223040.8113570627</v>
       </c>
       <c r="S7">
-        <v>0.1331747747050787</v>
+        <v>0.2283850501471227</v>
       </c>
       <c r="T7">
-        <v>0.1331747747050787</v>
+        <v>0.2283850501471228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.172821</v>
       </c>
       <c r="I8">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J8">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>26814.02711133668</v>
@@ -948,10 +948,10 @@
         <v>241326.2440020301</v>
       </c>
       <c r="S8">
-        <v>0.1403711457938258</v>
+        <v>0.2471086165929837</v>
       </c>
       <c r="T8">
-        <v>0.1403711457938258</v>
+        <v>0.2471086165929837</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.172821</v>
       </c>
       <c r="I9">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J9">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>17324.25069179386</v>
+        <v>11559.17553278256</v>
       </c>
       <c r="R9">
-        <v>155918.2562261448</v>
+        <v>104032.5797950431</v>
       </c>
       <c r="S9">
-        <v>0.09069226750346777</v>
+        <v>0.1065252848071344</v>
       </c>
       <c r="T9">
-        <v>0.09069226750346777</v>
+        <v>0.1065252848071345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.172821</v>
       </c>
       <c r="I10">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J10">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>9282.178888579654</v>
+        <v>9077.101850465679</v>
       </c>
       <c r="R10">
-        <v>83539.60999721687</v>
+        <v>81693.9166541911</v>
       </c>
       <c r="S10">
-        <v>0.04859210743105101</v>
+        <v>0.08365136917437729</v>
       </c>
       <c r="T10">
-        <v>0.048592107431051</v>
+        <v>0.08365136917437731</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.172821</v>
       </c>
       <c r="I11">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J11">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>13512.48264426605</v>
+        <v>10837.93008893178</v>
       </c>
       <c r="R11">
-        <v>121612.3437983945</v>
+        <v>97541.37080038601</v>
       </c>
       <c r="S11">
-        <v>0.07073770245025525</v>
+        <v>0.09987854117873676</v>
       </c>
       <c r="T11">
-        <v>0.07073770245025524</v>
+        <v>0.0998785411787368</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H12">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I12">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J12">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>983.7388805299101</v>
+        <v>1896.812048633657</v>
       </c>
       <c r="R12">
-        <v>8853.64992476919</v>
+        <v>17071.30843770292</v>
       </c>
       <c r="S12">
-        <v>0.005149862542040044</v>
+        <v>0.01748035083758818</v>
       </c>
       <c r="T12">
-        <v>0.005149862542040043</v>
+        <v>0.01748035083758818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H13">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I13">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J13">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>1036.897221172118</v>
+        <v>2052.317351651624</v>
       </c>
       <c r="R13">
-        <v>9332.074990549059</v>
+        <v>18470.85616486462</v>
       </c>
       <c r="S13">
-        <v>0.005428145888046299</v>
+        <v>0.01891343286372651</v>
       </c>
       <c r="T13">
-        <v>0.005428145888046298</v>
+        <v>0.01891343286372651</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H14">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I14">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J14">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>669.9279942778694</v>
+        <v>884.7271026546658</v>
       </c>
       <c r="R14">
-        <v>6029.351948500825</v>
+        <v>7962.543923891993</v>
       </c>
       <c r="S14">
-        <v>0.003507065901204583</v>
+        <v>0.008153332936210891</v>
       </c>
       <c r="T14">
-        <v>0.003507065901204583</v>
+        <v>0.008153332936210895</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H15">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I15">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J15">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>358.9414397183755</v>
+        <v>694.7518011027743</v>
       </c>
       <c r="R15">
-        <v>3230.472957465379</v>
+        <v>6252.766209924968</v>
       </c>
       <c r="S15">
-        <v>0.001879054606640999</v>
+        <v>0.006402587561098058</v>
       </c>
       <c r="T15">
-        <v>0.001879054606640998</v>
+        <v>0.00640258756109806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H16">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I16">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J16">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>522.5270954936948</v>
+        <v>829.5237371524055</v>
       </c>
       <c r="R16">
-        <v>4702.743859443253</v>
+        <v>7465.713634371649</v>
       </c>
       <c r="S16">
-        <v>0.002735423768992877</v>
+        <v>0.007644598189882055</v>
       </c>
       <c r="T16">
-        <v>0.002735423768992877</v>
+        <v>0.007644598189882058</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H17">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I17">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J17">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>2929.417353900023</v>
+        <v>3778.353220025373</v>
       </c>
       <c r="R17">
-        <v>26364.75618510021</v>
+        <v>34005.17898022835</v>
       </c>
       <c r="S17">
-        <v>0.01533546858768596</v>
+        <v>0.03481997065652896</v>
       </c>
       <c r="T17">
-        <v>0.01533546858768596</v>
+        <v>0.03481997065652897</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H18">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I18">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J18">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>3087.714406770323</v>
+        <v>4088.111882098504</v>
       </c>
       <c r="R18">
-        <v>27789.4296609329</v>
+        <v>36793.00693888654</v>
       </c>
       <c r="S18">
-        <v>0.01616415197026505</v>
+        <v>0.0376745972348031</v>
       </c>
       <c r="T18">
-        <v>0.01616415197026505</v>
+        <v>0.0376745972348031</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H19">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I19">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J19">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>1994.938627660918</v>
+        <v>1762.331433716337</v>
       </c>
       <c r="R19">
-        <v>17954.44764894826</v>
+        <v>15860.98290344703</v>
       </c>
       <c r="S19">
-        <v>0.01044348242770035</v>
+        <v>0.01624102492161105</v>
       </c>
       <c r="T19">
-        <v>0.01044348242770035</v>
+        <v>0.01624102492161106</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H20">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I20">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J20">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>1068.870310359659</v>
+        <v>1383.910286053903</v>
       </c>
       <c r="R20">
-        <v>9619.832793236928</v>
+        <v>12455.19257448513</v>
       </c>
       <c r="S20">
-        <v>0.005595524668756405</v>
+        <v>0.01275362909329634</v>
       </c>
       <c r="T20">
-        <v>0.005595524668756405</v>
+        <v>0.01275362909329635</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H21">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I21">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J21">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>1556.002280399513</v>
+        <v>1652.369134630379</v>
       </c>
       <c r="R21">
-        <v>14004.02052359562</v>
+        <v>14871.32221167341</v>
       </c>
       <c r="S21">
-        <v>0.008145655333701844</v>
+        <v>0.01522765115676442</v>
       </c>
       <c r="T21">
-        <v>0.008145655333701844</v>
+        <v>0.01522765115676443</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H22">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I22">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J22">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>21801.68410574842</v>
+        <v>100.196233089216</v>
       </c>
       <c r="R22">
-        <v>196215.1569517358</v>
+        <v>901.7660978029439</v>
       </c>
       <c r="S22">
-        <v>0.114131583646571</v>
+        <v>0.0009233731450967438</v>
       </c>
       <c r="T22">
-        <v>0.114131583646571</v>
+        <v>0.0009233731450967439</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H23">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I23">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J23">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>22979.78265731009</v>
+        <v>108.410565974238</v>
       </c>
       <c r="R23">
-        <v>206818.0439157908</v>
+        <v>975.6950937681419</v>
       </c>
       <c r="S23">
-        <v>0.1202989169924391</v>
+        <v>0.0009990735397828461</v>
       </c>
       <c r="T23">
-        <v>0.1202989169924391</v>
+        <v>0.0009990735397828463</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H24">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I24">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J24">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>14846.98713644029</v>
+        <v>46.734373635906</v>
       </c>
       <c r="R24">
-        <v>133622.8842279626</v>
+        <v>420.6093627231539</v>
       </c>
       <c r="S24">
-        <v>0.07772381922621335</v>
+        <v>0.0004306875042885958</v>
       </c>
       <c r="T24">
-        <v>0.07772381922621335</v>
+        <v>0.0004306875042885959</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H25">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I25">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J25">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>7954.883187078251</v>
+        <v>36.699215113374</v>
       </c>
       <c r="R25">
-        <v>71593.94868370425</v>
+        <v>330.292936020366</v>
       </c>
       <c r="S25">
-        <v>0.04164372859733975</v>
+        <v>0.0003382070227295334</v>
       </c>
       <c r="T25">
-        <v>0.04164372859733975</v>
+        <v>0.0003382070227295335</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H26">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I26">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J26">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>11580.27897251684</v>
+        <v>43.818339186864</v>
       </c>
       <c r="R26">
-        <v>104222.5107526516</v>
+        <v>394.365052681776</v>
       </c>
       <c r="S26">
-        <v>0.06062263684730435</v>
+        <v>0.0004038143592869784</v>
       </c>
       <c r="T26">
-        <v>0.06062263684730433</v>
+        <v>0.0004038143592869785</v>
       </c>
     </row>
   </sheetData>
